--- a/PrimeAnalyticsAddin/bin/Debug/Imported.xlsx
+++ b/PrimeAnalyticsAddin/bin/Debug/Imported.xlsx
@@ -6,7 +6,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Sheet1" sheetId="1" r:id="R96f2a71226d14577"/>
+    <x:sheet name="Sheet1" sheetId="1" r:id="R7b3adbd05ae54b2c"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -182,6 +182,12 @@
     <x:t>182</x:t>
   </x:si>
   <x:si>
+    <x:t>2015-01-25T05:01:00.000000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>47</x:t>
+  </x:si>
+  <x:si>
     <x:t>Damelin</x:t>
   </x:si>
   <x:si>
@@ -197,12 +203,6 @@
     <x:t>3</x:t>
   </x:si>
   <x:si>
-    <x:t>2015-01-25T05:01:00.000000Z</x:t>
-  </x:si>
-  <x:si>
-    <x:t>47</x:t>
-  </x:si>
-  <x:si>
     <x:t>2015-01-26T20:01:00.000000Z</x:t>
   </x:si>
   <x:si>
@@ -350,24 +350,24 @@
     <x:t>126</x:t>
   </x:si>
   <x:si>
+    <x:t>Multichoice</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Corporate|Q2|2014</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TheStar|HP&amp;ROS|728x90</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2014-11-14T23:00:00.000000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1</x:t>
+  </x:si>
+  <x:si>
     <x:t>2015-01-06T23:00:00.000000Z</x:t>
   </x:si>
   <x:si>
-    <x:t>1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Multichoice</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Corporate|Q2|2014</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TheStar|HP&amp;ROS|728x90</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2014-11-14T23:00:00.000000Z</x:t>
-  </x:si>
-  <x:si>
     <x:t>2015-01-26T06:01:00.000000Z</x:t>
   </x:si>
   <x:si>
@@ -419,18 +419,18 @@
     <x:t>25</x:t>
   </x:si>
   <x:si>
+    <x:t>2015-02-04T23:00:00.000000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>79</x:t>
+  </x:si>
+  <x:si>
     <x:t>2015-02-04T14:01:00.000000Z</x:t>
   </x:si>
   <x:si>
     <x:t>221</x:t>
   </x:si>
   <x:si>
-    <x:t>2015-02-04T23:00:00.000000Z</x:t>
-  </x:si>
-  <x:si>
-    <x:t>79</x:t>
-  </x:si>
-  <x:si>
     <x:t>2015-01-25T11:01:00.000000Z</x:t>
   </x:si>
   <x:si>
@@ -461,18 +461,18 @@
     <x:t>2015-01-24T07:01:00.000000Z</x:t>
   </x:si>
   <x:si>
+    <x:t>2015-01-25T17:01:00.000000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>73</x:t>
+  </x:si>
+  <x:si>
     <x:t>2015-01-28T10:01:00.000000Z</x:t>
   </x:si>
   <x:si>
     <x:t>36</x:t>
   </x:si>
   <x:si>
-    <x:t>2015-01-25T17:01:00.000000Z</x:t>
-  </x:si>
-  <x:si>
-    <x:t>73</x:t>
-  </x:si>
-  <x:si>
     <x:t>112</x:t>
   </x:si>
   <x:si>
@@ -530,15 +530,15 @@
     <x:t>69</x:t>
   </x:si>
   <x:si>
+    <x:t>2015-01-22T15:01:00.000000Z</x:t>
+  </x:si>
+  <x:si>
     <x:t>2015-02-01T23:00:00.000000Z</x:t>
   </x:si>
   <x:si>
     <x:t>75</x:t>
   </x:si>
   <x:si>
-    <x:t>2015-01-22T15:01:00.000000Z</x:t>
-  </x:si>
-  <x:si>
     <x:t>2015-02-04T05:02:00.000000Z</x:t>
   </x:si>
   <x:si>
@@ -635,15 +635,15 @@
     <x:t>2015-01-25T09:01:00.000000Z</x:t>
   </x:si>
   <x:si>
+    <x:t>2015-02-03T16:01:00.000000Z</x:t>
+  </x:si>
+  <x:si>
     <x:t>2015-01-24T17:01:00.000000Z</x:t>
   </x:si>
   <x:si>
     <x:t>122</x:t>
   </x:si>
   <x:si>
-    <x:t>2015-02-03T16:01:00.000000Z</x:t>
-  </x:si>
-  <x:si>
     <x:t>2015-01-25T01:01:00.000000Z</x:t>
   </x:si>
   <x:si>
@@ -848,15 +848,15 @@
     <x:t>91</x:t>
   </x:si>
   <x:si>
+    <x:t>2015-01-29T11:01:00.000000Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>68</x:t>
+  </x:si>
+  <x:si>
     <x:t>2015-01-28T19:01:00.000000Z</x:t>
   </x:si>
   <x:si>
-    <x:t>2015-01-29T11:01:00.000000Z</x:t>
-  </x:si>
-  <x:si>
-    <x:t>68</x:t>
-  </x:si>
-  <x:si>
     <x:t>2015-01-27T16:01:00.000000Z</x:t>
   </x:si>
   <x:si>
@@ -932,12 +932,12 @@
     <x:t>2015-02-02T19:01:00.000000Z</x:t>
   </x:si>
   <x:si>
+    <x:t>2015-02-05T03:01:00.000000Z</x:t>
+  </x:si>
+  <x:si>
     <x:t>2015-02-05T12:01:00.000000Z</x:t>
   </x:si>
   <x:si>
-    <x:t>2015-02-05T03:01:00.000000Z</x:t>
-  </x:si>
-  <x:si>
     <x:t>2015-01-23T11:01:00.000000Z</x:t>
   </x:si>
   <x:si>
@@ -983,10 +983,10 @@
     <x:t>121</x:t>
   </x:si>
   <x:si>
+    <x:t>2015-01-22T19:01:00.000000Z</x:t>
+  </x:si>
+  <x:si>
     <x:t>52</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2015-01-22T19:01:00.000000Z</x:t>
   </x:si>
   <x:si>
     <x:t>95</x:t>
@@ -4449,25 +4449,25 @@
     </x:row>
     <x:row r="22">
       <x:c r="A22" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B22" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C22" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="D22" t="s">
         <x:v>56</x:v>
       </x:c>
-      <x:c r="B22" t="s">
+      <x:c r="E22" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F22" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G22" t="s">
         <x:v>57</x:v>
-      </x:c>
-      <x:c r="C22" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="D22" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="E22" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="F22" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G22" t="s">
-        <x:v>60</x:v>
       </x:c>
       <x:c r="H22" t="s">
         <x:v>14</x:v>
@@ -4481,13 +4481,13 @@
     </x:row>
     <x:row r="23">
       <x:c r="A23" t="s">
-        <x:v>10</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="B23" t="s">
-        <x:v>30</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="C23" t="s">
-        <x:v>31</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D23" t="s">
         <x:v>61</x:v>
@@ -4897,13 +4897,13 @@
     </x:row>
     <x:row r="36">
       <x:c r="A36" t="s">
-        <x:v>56</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="B36" t="s">
-        <x:v>57</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="C36" t="s">
-        <x:v>58</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D36" t="s">
         <x:v>87</x:v>
@@ -5121,13 +5121,13 @@
     </x:row>
     <x:row r="43">
       <x:c r="A43" t="s">
-        <x:v>56</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="B43" t="s">
-        <x:v>57</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="C43" t="s">
-        <x:v>58</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D43" t="s">
         <x:v>101</x:v>
@@ -5249,13 +5249,13 @@
     </x:row>
     <x:row r="47">
       <x:c r="A47" t="s">
-        <x:v>56</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="B47" t="s">
-        <x:v>57</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="C47" t="s">
-        <x:v>58</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D47" t="s">
         <x:v>23</x:v>
@@ -5313,25 +5313,25 @@
     </x:row>
     <x:row r="49">
       <x:c r="A49" t="s">
-        <x:v>56</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="B49" t="s">
-        <x:v>57</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="C49" t="s">
-        <x:v>58</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="D49" t="s">
-        <x:v>112</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="E49" t="s">
-        <x:v>14</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="F49" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="G49" t="s">
-        <x:v>113</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H49" t="s">
         <x:v>14</x:v>
@@ -5340,30 +5340,30 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="J49" t="s">
-        <x:v>16</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="50">
       <x:c r="A50" t="s">
-        <x:v>114</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="B50" t="s">
-        <x:v>115</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="C50" t="s">
-        <x:v>116</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D50" t="s">
         <x:v>117</x:v>
       </x:c>
       <x:c r="E50" t="s">
-        <x:v>113</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F50" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="G50" t="s">
-        <x:v>14</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H50" t="s">
         <x:v>14</x:v>
@@ -5372,7 +5372,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="J50" t="s">
-        <x:v>14</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="51">
@@ -5700,10 +5700,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B61" t="s">
-        <x:v>11</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C61" t="s">
-        <x:v>12</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="D61" t="s">
         <x:v>135</x:v>
@@ -5732,10 +5732,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B62" t="s">
-        <x:v>30</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C62" t="s">
-        <x:v>31</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D62" t="s">
         <x:v>137</x:v>
@@ -5875,7 +5875,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G66" t="s">
-        <x:v>60</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="H66" t="s">
         <x:v>14</x:v>
@@ -5994,7 +5994,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D70" t="s">
-        <x:v>137</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="E70" t="s">
         <x:v>14</x:v>
@@ -6090,7 +6090,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D73" t="s">
-        <x:v>59</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="E73" t="s">
         <x:v>14</x:v>
@@ -6241,13 +6241,13 @@
     </x:row>
     <x:row r="78">
       <x:c r="A78" t="s">
-        <x:v>56</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="B78" t="s">
-        <x:v>57</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="C78" t="s">
-        <x:v>58</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D78" t="s">
         <x:v>54</x:v>
@@ -6337,13 +6337,13 @@
     </x:row>
     <x:row r="81">
       <x:c r="A81" t="s">
-        <x:v>56</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="B81" t="s">
-        <x:v>57</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="C81" t="s">
-        <x:v>58</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D81" t="s">
         <x:v>164</x:v>
@@ -6433,13 +6433,13 @@
     </x:row>
     <x:row r="84">
       <x:c r="A84" t="s">
-        <x:v>56</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="B84" t="s">
-        <x:v>57</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="C84" t="s">
-        <x:v>58</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D84" t="s">
         <x:v>91</x:v>
@@ -6451,7 +6451,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G84" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H84" t="s">
         <x:v>14</x:v>
@@ -6497,13 +6497,13 @@
     </x:row>
     <x:row r="86">
       <x:c r="A86" t="s">
-        <x:v>56</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="B86" t="s">
-        <x:v>57</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="C86" t="s">
-        <x:v>58</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D86" t="s">
         <x:v>89</x:v>
@@ -6579,7 +6579,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G88" t="s">
-        <x:v>173</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="H88" t="s">
         <x:v>14</x:v>
@@ -6602,16 +6602,16 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D89" t="s">
+        <x:v>173</x:v>
+      </x:c>
+      <x:c r="E89" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F89" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G89" t="s">
         <x:v>174</x:v>
-      </x:c>
-      <x:c r="E89" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="F89" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G89" t="s">
-        <x:v>138</x:v>
       </x:c>
       <x:c r="H89" t="s">
         <x:v>14</x:v>
@@ -6753,13 +6753,13 @@
     </x:row>
     <x:row r="94">
       <x:c r="A94" t="s">
-        <x:v>56</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="B94" t="s">
-        <x:v>57</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="C94" t="s">
-        <x:v>58</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D94" t="s">
         <x:v>181</x:v>
@@ -6913,13 +6913,13 @@
     </x:row>
     <x:row r="99">
       <x:c r="A99" t="s">
-        <x:v>56</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="B99" t="s">
-        <x:v>57</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="C99" t="s">
-        <x:v>58</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D99" t="s">
         <x:v>189</x:v>
@@ -6931,7 +6931,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G99" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H99" t="s">
         <x:v>14</x:v>
@@ -6986,7 +6986,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D101" t="s">
-        <x:v>61</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="E101" t="s">
         <x:v>14</x:v>
@@ -7041,16 +7041,16 @@
     </x:row>
     <x:row r="103">
       <x:c r="A103" t="s">
-        <x:v>56</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="B103" t="s">
-        <x:v>57</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="C103" t="s">
-        <x:v>58</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D103" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="E103" t="s">
         <x:v>14</x:v>
@@ -7059,7 +7059,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G103" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H103" t="s">
         <x:v>14</x:v>
@@ -7073,13 +7073,13 @@
     </x:row>
     <x:row r="104">
       <x:c r="A104" t="s">
-        <x:v>56</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="B104" t="s">
-        <x:v>57</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="C104" t="s">
-        <x:v>58</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D104" t="s">
         <x:v>194</x:v>
@@ -7169,13 +7169,13 @@
     </x:row>
     <x:row r="107">
       <x:c r="A107" t="s">
-        <x:v>56</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="B107" t="s">
-        <x:v>57</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="C107" t="s">
-        <x:v>58</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D107" t="s">
         <x:v>190</x:v>
@@ -7411,7 +7411,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G114" t="s">
-        <x:v>173</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="H114" t="s">
         <x:v>14</x:v>
@@ -7475,7 +7475,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G116" t="s">
-        <x:v>208</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="H116" t="s">
         <x:v>14</x:v>
@@ -7498,16 +7498,16 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D117" t="s">
+        <x:v>208</x:v>
+      </x:c>
+      <x:c r="E117" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F117" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G117" t="s">
         <x:v>209</x:v>
-      </x:c>
-      <x:c r="E117" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="F117" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G117" t="s">
-        <x:v>191</x:v>
       </x:c>
       <x:c r="H117" t="s">
         <x:v>14</x:v>
@@ -7571,7 +7571,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G119" t="s">
-        <x:v>60</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="H119" t="s">
         <x:v>14</x:v>
@@ -7585,13 +7585,13 @@
     </x:row>
     <x:row r="120">
       <x:c r="A120" t="s">
-        <x:v>56</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="B120" t="s">
-        <x:v>57</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="C120" t="s">
-        <x:v>58</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D120" t="s">
         <x:v>212</x:v>
@@ -7603,7 +7603,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G120" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H120" t="s">
         <x:v>14</x:v>
@@ -7699,7 +7699,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G123" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H123" t="s">
         <x:v>14</x:v>
@@ -8065,13 +8065,13 @@
     </x:row>
     <x:row r="135">
       <x:c r="A135" t="s">
-        <x:v>56</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="B135" t="s">
-        <x:v>57</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="C135" t="s">
-        <x:v>58</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D135" t="s">
         <x:v>188</x:v>
@@ -8083,7 +8083,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G135" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H135" t="s">
         <x:v>14</x:v>
@@ -8554,7 +8554,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="D150" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="E150" t="s">
         <x:v>14</x:v>
@@ -9025,16 +9025,16 @@
     </x:row>
     <x:row r="165">
       <x:c r="A165" t="s">
-        <x:v>10</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="B165" t="s">
-        <x:v>11</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="C165" t="s">
-        <x:v>12</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D165" t="s">
-        <x:v>265</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="E165" t="s">
         <x:v>14</x:v>
@@ -9043,7 +9043,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G165" t="s">
-        <x:v>266</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H165" t="s">
         <x:v>14</x:v>
@@ -9066,7 +9066,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D166" t="s">
-        <x:v>267</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="E166" t="s">
         <x:v>14</x:v>
@@ -9075,7 +9075,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G166" t="s">
-        <x:v>268</x:v>
+        <x:v>266</x:v>
       </x:c>
       <x:c r="H166" t="s">
         <x:v>14</x:v>
@@ -9089,16 +9089,16 @@
     </x:row>
     <x:row r="167">
       <x:c r="A167" t="s">
-        <x:v>56</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="B167" t="s">
-        <x:v>57</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C167" t="s">
-        <x:v>58</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D167" t="s">
-        <x:v>229</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="E167" t="s">
         <x:v>14</x:v>
@@ -9107,7 +9107,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G167" t="s">
-        <x:v>20</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="H167" t="s">
         <x:v>14</x:v>
@@ -9395,7 +9395,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G176" t="s">
-        <x:v>102</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="H176" t="s">
         <x:v>14</x:v>
@@ -9418,7 +9418,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D177" t="s">
-        <x:v>279</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="E177" t="s">
         <x:v>14</x:v>
@@ -9427,7 +9427,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G177" t="s">
-        <x:v>280</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="H177" t="s">
         <x:v>14</x:v>
@@ -9473,13 +9473,13 @@
     </x:row>
     <x:row r="179">
       <x:c r="A179" t="s">
-        <x:v>56</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="B179" t="s">
-        <x:v>57</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="C179" t="s">
-        <x:v>58</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D179" t="s">
         <x:v>157</x:v>
@@ -9601,13 +9601,13 @@
     </x:row>
     <x:row r="183">
       <x:c r="A183" t="s">
-        <x:v>56</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="B183" t="s">
-        <x:v>57</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="C183" t="s">
-        <x:v>58</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D183" t="s">
         <x:v>285</x:v>
@@ -9651,7 +9651,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G184" t="s">
-        <x:v>208</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="H184" t="s">
         <x:v>14</x:v>
@@ -9747,7 +9747,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G187" t="s">
-        <x:v>60</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="H187" t="s">
         <x:v>14</x:v>
@@ -9988,13 +9988,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B195" t="s">
-        <x:v>11</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C195" t="s">
-        <x:v>12</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="D195" t="s">
-        <x:v>165</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="E195" t="s">
         <x:v>14</x:v>
@@ -10003,7 +10003,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G195" t="s">
-        <x:v>29</x:v>
+        <x:v>277</x:v>
       </x:c>
       <x:c r="H195" t="s">
         <x:v>14</x:v>
@@ -10020,13 +10020,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B196" t="s">
-        <x:v>30</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C196" t="s">
-        <x:v>31</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D196" t="s">
-        <x:v>284</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="E196" t="s">
         <x:v>14</x:v>
@@ -10035,7 +10035,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G196" t="s">
-        <x:v>277</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="H196" t="s">
         <x:v>14</x:v>
@@ -10113,16 +10113,16 @@
     </x:row>
     <x:row r="199">
       <x:c r="A199" t="s">
-        <x:v>56</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="B199" t="s">
-        <x:v>57</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="C199" t="s">
-        <x:v>58</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D199" t="s">
-        <x:v>278</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="E199" t="s">
         <x:v>14</x:v>
@@ -10163,7 +10163,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G200" t="s">
-        <x:v>60</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="H200" t="s">
         <x:v>14</x:v>
@@ -10195,7 +10195,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G201" t="s">
-        <x:v>60</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="H201" t="s">
         <x:v>14</x:v>
@@ -10433,13 +10433,13 @@
     </x:row>
     <x:row r="209">
       <x:c r="A209" t="s">
-        <x:v>56</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="B209" t="s">
-        <x:v>57</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="C209" t="s">
-        <x:v>58</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D209" t="s">
         <x:v>65</x:v>
@@ -10451,7 +10451,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G209" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H209" t="s">
         <x:v>14</x:v>
@@ -10500,10 +10500,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B211" t="s">
-        <x:v>11</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C211" t="s">
-        <x:v>12</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="D211" t="s">
         <x:v>306</x:v>
@@ -10515,7 +10515,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G211" t="s">
-        <x:v>60</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="H211" t="s">
         <x:v>14</x:v>
@@ -10532,10 +10532,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B212" t="s">
-        <x:v>30</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C212" t="s">
-        <x:v>31</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D212" t="s">
         <x:v>307</x:v>
@@ -10547,7 +10547,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G212" t="s">
-        <x:v>15</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="H212" t="s">
         <x:v>14</x:v>
@@ -10643,7 +10643,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G215" t="s">
-        <x:v>280</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="H215" t="s">
         <x:v>14</x:v>
@@ -10771,7 +10771,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G219" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H219" t="s">
         <x:v>14</x:v>
@@ -10948,13 +10948,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B225" t="s">
-        <x:v>30</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C225" t="s">
-        <x:v>31</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D225" t="s">
-        <x:v>273</x:v>
+        <x:v>323</x:v>
       </x:c>
       <x:c r="E225" t="s">
         <x:v>14</x:v>
@@ -10963,7 +10963,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G225" t="s">
-        <x:v>323</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="H225" t="s">
         <x:v>14</x:v>
@@ -10980,22 +10980,22 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B226" t="s">
-        <x:v>11</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C226" t="s">
-        <x:v>12</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="D226" t="s">
+        <x:v>273</x:v>
+      </x:c>
+      <x:c r="E226" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F226" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G226" t="s">
         <x:v>324</x:v>
-      </x:c>
-      <x:c r="E226" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="F226" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G226" t="s">
-        <x:v>295</x:v>
       </x:c>
       <x:c r="H226" t="s">
         <x:v>14</x:v>
@@ -11018,7 +11018,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="D227" t="s">
-        <x:v>278</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="E227" t="s">
         <x:v>14</x:v>
@@ -11073,13 +11073,13 @@
     </x:row>
     <x:row r="229">
       <x:c r="A229" t="s">
-        <x:v>56</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="B229" t="s">
-        <x:v>57</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="C229" t="s">
-        <x:v>58</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D229" t="s">
         <x:v>123</x:v>
@@ -11091,7 +11091,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G229" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H229" t="s">
         <x:v>14</x:v>
@@ -11425,16 +11425,16 @@
     </x:row>
     <x:row r="240">
       <x:c r="A240" t="s">
-        <x:v>56</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="B240" t="s">
-        <x:v>57</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="C240" t="s">
-        <x:v>58</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D240" t="s">
-        <x:v>320</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="E240" t="s">
         <x:v>14</x:v>
@@ -11443,7 +11443,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G240" t="s">
-        <x:v>60</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="H240" t="s">
         <x:v>14</x:v>
@@ -11457,16 +11457,16 @@
     </x:row>
     <x:row r="241">
       <x:c r="A241" t="s">
-        <x:v>56</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="B241" t="s">
-        <x:v>57</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C241" t="s">
-        <x:v>58</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D241" t="s">
-        <x:v>40</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="E241" t="s">
         <x:v>14</x:v>
@@ -11475,7 +11475,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G241" t="s">
-        <x:v>53</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H241" t="s">
         <x:v>14</x:v>
@@ -11489,16 +11489,16 @@
     </x:row>
     <x:row r="242">
       <x:c r="A242" t="s">
-        <x:v>10</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="B242" t="s">
-        <x:v>11</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="C242" t="s">
-        <x:v>12</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D242" t="s">
-        <x:v>339</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="E242" t="s">
         <x:v>14</x:v>
@@ -11507,7 +11507,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G242" t="s">
-        <x:v>20</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="H242" t="s">
         <x:v>14</x:v>
@@ -11841,13 +11841,13 @@
     </x:row>
     <x:row r="253">
       <x:c r="A253" t="s">
-        <x:v>56</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="B253" t="s">
-        <x:v>57</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="C253" t="s">
-        <x:v>58</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D253" t="s">
         <x:v>350</x:v>
@@ -11859,7 +11859,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G253" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H253" t="s">
         <x:v>14</x:v>
@@ -11873,13 +11873,13 @@
     </x:row>
     <x:row r="254">
       <x:c r="A254" t="s">
-        <x:v>56</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="B254" t="s">
-        <x:v>57</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="C254" t="s">
-        <x:v>58</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D254" t="s">
         <x:v>34</x:v>
@@ -11937,16 +11937,16 @@
     </x:row>
     <x:row r="256">
       <x:c r="A256" t="s">
-        <x:v>56</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="B256" t="s">
-        <x:v>57</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="C256" t="s">
-        <x:v>58</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D256" t="s">
-        <x:v>279</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="E256" t="s">
         <x:v>14</x:v>
@@ -12013,7 +12013,7 @@
         <x:v>357</x:v>
       </x:c>
       <x:c r="E258" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="F258" t="s">
         <x:v>14</x:v>
@@ -12083,7 +12083,7 @@
         <x:v>369</x:v>
       </x:c>
       <x:c r="G260" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H260" t="s">
         <x:v>14</x:v>
@@ -12371,7 +12371,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G269" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H269" t="s">
         <x:v>14</x:v>
@@ -12394,10 +12394,10 @@
         <x:v>403</x:v>
       </x:c>
       <x:c r="D270" t="s">
-        <x:v>137</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="E270" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="F270" t="s">
         <x:v>14</x:v>
@@ -12493,7 +12493,7 @@
         <x:v>189</x:v>
       </x:c>
       <x:c r="E273" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="F273" t="s">
         <x:v>14</x:v>
@@ -12618,7 +12618,7 @@
         <x:v>416</x:v>
       </x:c>
       <x:c r="D277" t="s">
-        <x:v>137</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="E277" t="s">
         <x:v>119</x:v>
@@ -12685,7 +12685,7 @@
         <x:v>420</x:v>
       </x:c>
       <x:c r="E279" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="F279" t="s">
         <x:v>14</x:v>
@@ -12819,7 +12819,7 @@
         <x:v>433</x:v>
       </x:c>
       <x:c r="G283" t="s">
-        <x:v>60</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="H283" t="s">
         <x:v>14</x:v>
@@ -12851,7 +12851,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G284" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H284" t="s">
         <x:v>14</x:v>
@@ -12915,7 +12915,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G286" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H286" t="s">
         <x:v>14</x:v>
@@ -12947,7 +12947,7 @@
         <x:v>443</x:v>
       </x:c>
       <x:c r="G287" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H287" t="s">
         <x:v>14</x:v>
@@ -13011,7 +13011,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G289" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H289" t="s">
         <x:v>14</x:v>
@@ -13075,7 +13075,7 @@
         <x:v>452</x:v>
       </x:c>
       <x:c r="G291" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H291" t="s">
         <x:v>14</x:v>
@@ -13133,7 +13133,7 @@
         <x:v>459</x:v>
       </x:c>
       <x:c r="E293" t="s">
-        <x:v>60</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="F293" t="s">
         <x:v>14</x:v>
@@ -13235,7 +13235,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G296" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H296" t="s">
         <x:v>14</x:v>
@@ -13299,7 +13299,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G298" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H298" t="s">
         <x:v>14</x:v>
@@ -13389,7 +13389,7 @@
         <x:v>467</x:v>
       </x:c>
       <x:c r="E301" t="s">
-        <x:v>62</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="F301" t="s">
         <x:v>14</x:v>
@@ -13523,7 +13523,7 @@
         <x:v>474</x:v>
       </x:c>
       <x:c r="G305" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H305" t="s">
         <x:v>14</x:v>
@@ -13709,13 +13709,13 @@
         <x:v>486</x:v>
       </x:c>
       <x:c r="E311" t="s">
-        <x:v>62</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="F311" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="G311" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H311" t="s">
         <x:v>14</x:v>
@@ -13837,7 +13837,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E315" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="F315" t="s">
         <x:v>14</x:v>
@@ -13875,7 +13875,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G316" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H316" t="s">
         <x:v>14</x:v>
@@ -14093,7 +14093,7 @@
         <x:v>435</x:v>
       </x:c>
       <x:c r="E323" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="F323" t="s">
         <x:v>14</x:v>
@@ -14317,7 +14317,7 @@
         <x:v>357</x:v>
       </x:c>
       <x:c r="E330" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="F330" t="s">
         <x:v>14</x:v>
@@ -14483,7 +14483,7 @@
         <x:v>524</x:v>
       </x:c>
       <x:c r="G335" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H335" t="s">
         <x:v>14</x:v>
@@ -14547,7 +14547,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G337" t="s">
-        <x:v>60</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="H337" t="s">
         <x:v>14</x:v>
@@ -14573,7 +14573,7 @@
         <x:v>410</x:v>
       </x:c>
       <x:c r="E338" t="s">
-        <x:v>60</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="F338" t="s">
         <x:v>14</x:v>
@@ -14666,7 +14666,7 @@
         <x:v>534</x:v>
       </x:c>
       <x:c r="D341" t="s">
-        <x:v>209</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="E341" t="s">
         <x:v>535</x:v>
@@ -14675,7 +14675,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G341" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H341" t="s">
         <x:v>14</x:v>
@@ -14707,7 +14707,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G342" t="s">
-        <x:v>60</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="H342" t="s">
         <x:v>14</x:v>
@@ -14986,7 +14986,7 @@
         <x:v>534</x:v>
       </x:c>
       <x:c r="D351" t="s">
-        <x:v>307</x:v>
+        <x:v>306</x:v>
       </x:c>
       <x:c r="E351" t="s">
         <x:v>548</x:v>
@@ -14995,7 +14995,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G351" t="s">
-        <x:v>60</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="H351" t="s">
         <x:v>14</x:v>
@@ -15027,7 +15027,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G352" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H352" t="s">
         <x:v>14</x:v>
@@ -15123,7 +15123,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G355" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H355" t="s">
         <x:v>14</x:v>
@@ -15187,7 +15187,7 @@
         <x:v>558</x:v>
       </x:c>
       <x:c r="G357" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H357" t="s">
         <x:v>14</x:v>
@@ -15219,7 +15219,7 @@
         <x:v>561</x:v>
       </x:c>
       <x:c r="G358" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H358" t="s">
         <x:v>14</x:v>
@@ -15347,7 +15347,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G362" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H362" t="s">
         <x:v>14</x:v>
@@ -15626,7 +15626,7 @@
         <x:v>506</x:v>
       </x:c>
       <x:c r="D371" t="s">
-        <x:v>112</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="E371" t="s">
         <x:v>102</x:v>
@@ -15699,7 +15699,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G373" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H373" t="s">
         <x:v>14</x:v>
@@ -15725,13 +15725,13 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="E374" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="F374" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="G374" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H374" t="s">
         <x:v>14</x:v>
@@ -16531,7 +16531,7 @@
         <x:v>614</x:v>
       </x:c>
       <x:c r="G399" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H399" t="s">
         <x:v>14</x:v>
@@ -16595,7 +16595,7 @@
         <x:v>619</x:v>
       </x:c>
       <x:c r="G401" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H401" t="s">
         <x:v>14</x:v>
@@ -16685,7 +16685,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E404" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="F404" t="s">
         <x:v>14</x:v>
@@ -16723,7 +16723,7 @@
         <x:v>626</x:v>
       </x:c>
       <x:c r="G405" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H405" t="s">
         <x:v>14</x:v>
@@ -16787,7 +16787,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G407" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H407" t="s">
         <x:v>14</x:v>
@@ -16883,7 +16883,7 @@
         <x:v>558</x:v>
       </x:c>
       <x:c r="G410" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H410" t="s">
         <x:v>14</x:v>
@@ -17139,7 +17139,7 @@
         <x:v>639</x:v>
       </x:c>
       <x:c r="G418" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H418" t="s">
         <x:v>14</x:v>
@@ -17203,7 +17203,7 @@
         <x:v>643</x:v>
       </x:c>
       <x:c r="G420" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H420" t="s">
         <x:v>14</x:v>
@@ -17235,7 +17235,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G421" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H421" t="s">
         <x:v>14</x:v>
@@ -17258,7 +17258,7 @@
         <x:v>490</x:v>
       </x:c>
       <x:c r="D422" t="s">
-        <x:v>112</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="E422" t="s">
         <x:v>644</x:v>
@@ -17267,7 +17267,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G422" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H422" t="s">
         <x:v>14</x:v>
@@ -17322,7 +17322,7 @@
         <x:v>458</x:v>
       </x:c>
       <x:c r="D424" t="s">
-        <x:v>117</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="E424" t="s">
         <x:v>102</x:v>
@@ -17427,7 +17427,7 @@
         <x:v>650</x:v>
       </x:c>
       <x:c r="G427" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H427" t="s">
         <x:v>14</x:v>
@@ -17459,7 +17459,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G428" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H428" t="s">
         <x:v>14</x:v>
@@ -17741,7 +17741,7 @@
         <x:v>427</x:v>
       </x:c>
       <x:c r="E437" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="F437" t="s">
         <x:v>14</x:v>
@@ -17843,7 +17843,7 @@
         <x:v>662</x:v>
       </x:c>
       <x:c r="G440" t="s">
-        <x:v>60</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="H440" t="s">
         <x:v>14</x:v>
@@ -17875,7 +17875,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G441" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H441" t="s">
         <x:v>14</x:v>
@@ -17901,7 +17901,7 @@
         <x:v>486</x:v>
       </x:c>
       <x:c r="E442" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="F442" t="s">
         <x:v>14</x:v>
@@ -17971,7 +17971,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G444" t="s">
-        <x:v>60</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="H444" t="s">
         <x:v>14</x:v>
@@ -18035,7 +18035,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G446" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H446" t="s">
         <x:v>14</x:v>
@@ -18067,7 +18067,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G447" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H447" t="s">
         <x:v>14</x:v>
@@ -18099,7 +18099,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G448" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H448" t="s">
         <x:v>14</x:v>
@@ -18195,7 +18195,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G451" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H451" t="s">
         <x:v>14</x:v>
@@ -18221,7 +18221,7 @@
         <x:v>669</x:v>
       </x:c>
       <x:c r="E452" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="F452" t="s">
         <x:v>14</x:v>
@@ -18355,7 +18355,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G456" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H456" t="s">
         <x:v>14</x:v>
@@ -18515,7 +18515,7 @@
         <x:v>683</x:v>
       </x:c>
       <x:c r="G461" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H461" t="s">
         <x:v>14</x:v>
@@ -18547,7 +18547,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G462" t="s">
-        <x:v>60</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="H462" t="s">
         <x:v>14</x:v>
@@ -18611,7 +18611,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G464" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H464" t="s">
         <x:v>14</x:v>
@@ -18707,7 +18707,7 @@
         <x:v>688</x:v>
       </x:c>
       <x:c r="G467" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H467" t="s">
         <x:v>14</x:v>
@@ -18771,7 +18771,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G469" t="s">
-        <x:v>60</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="H469" t="s">
         <x:v>14</x:v>
@@ -18826,7 +18826,7 @@
         <x:v>691</x:v>
       </x:c>
       <x:c r="D471" t="s">
-        <x:v>137</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="E471" t="s">
         <x:v>119</x:v>
@@ -19210,7 +19210,7 @@
         <x:v>492</x:v>
       </x:c>
       <x:c r="D483" t="s">
-        <x:v>117</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="E483" t="s">
         <x:v>15</x:v>
@@ -19373,7 +19373,7 @@
         <x:v>190</x:v>
       </x:c>
       <x:c r="E488" t="s">
-        <x:v>60</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="F488" t="s">
         <x:v>14</x:v>
@@ -19411,7 +19411,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G489" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H489" t="s">
         <x:v>14</x:v>
@@ -19443,7 +19443,7 @@
         <x:v>713</x:v>
       </x:c>
       <x:c r="G490" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H490" t="s">
         <x:v>14</x:v>
@@ -19725,7 +19725,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E499" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="F499" t="s">
         <x:v>14</x:v>
@@ -19859,7 +19859,7 @@
         <x:v>728</x:v>
       </x:c>
       <x:c r="G503" t="s">
-        <x:v>60</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="H503" t="s">
         <x:v>14</x:v>
@@ -19955,7 +19955,7 @@
         <x:v>731</x:v>
       </x:c>
       <x:c r="G506" t="s">
-        <x:v>60</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="H506" t="s">
         <x:v>14</x:v>
@@ -20115,7 +20115,7 @@
         <x:v>738</x:v>
       </x:c>
       <x:c r="G511" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H511" t="s">
         <x:v>14</x:v>
@@ -20147,7 +20147,7 @@
         <x:v>740</x:v>
       </x:c>
       <x:c r="G512" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H512" t="s">
         <x:v>14</x:v>
@@ -20237,7 +20237,7 @@
         <x:v>427</x:v>
       </x:c>
       <x:c r="E515" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="F515" t="s">
         <x:v>14</x:v>
@@ -20403,7 +20403,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G520" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H520" t="s">
         <x:v>14</x:v>
@@ -20467,7 +20467,7 @@
         <x:v>749</x:v>
       </x:c>
       <x:c r="G522" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H522" t="s">
         <x:v>14</x:v>
@@ -20531,7 +20531,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G524" t="s">
-        <x:v>60</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="H524" t="s">
         <x:v>14</x:v>
@@ -20563,7 +20563,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G525" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H525" t="s">
         <x:v>14</x:v>
@@ -20691,7 +20691,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G529" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H529" t="s">
         <x:v>14</x:v>
@@ -20755,7 +20755,7 @@
         <x:v>754</x:v>
       </x:c>
       <x:c r="G531" t="s">
-        <x:v>60</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="H531" t="s">
         <x:v>14</x:v>
@@ -20810,7 +20810,7 @@
         <x:v>756</x:v>
       </x:c>
       <x:c r="D533" t="s">
-        <x:v>279</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="E533" t="s">
         <x:v>271</x:v>
@@ -20909,7 +20909,7 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="E536" t="s">
-        <x:v>60</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="F536" t="s">
         <x:v>14</x:v>
@@ -21075,7 +21075,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G541" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H541" t="s">
         <x:v>14</x:v>
@@ -21139,7 +21139,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G543" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H543" t="s">
         <x:v>14</x:v>
@@ -21171,7 +21171,7 @@
         <x:v>765</x:v>
       </x:c>
       <x:c r="G544" t="s">
-        <x:v>60</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="H544" t="s">
         <x:v>14</x:v>
@@ -21299,7 +21299,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G548" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H548" t="s">
         <x:v>14</x:v>
@@ -21354,7 +21354,7 @@
         <x:v>554</x:v>
       </x:c>
       <x:c r="D550" t="s">
-        <x:v>117</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="E550" t="s">
         <x:v>14</x:v>
@@ -21363,7 +21363,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G550" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H550" t="s">
         <x:v>14</x:v>
@@ -21523,7 +21523,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G555" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H555" t="s">
         <x:v>14</x:v>
@@ -21555,7 +21555,7 @@
         <x:v>776</x:v>
       </x:c>
       <x:c r="G556" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H556" t="s">
         <x:v>14</x:v>
@@ -21587,7 +21587,7 @@
         <x:v>498</x:v>
       </x:c>
       <x:c r="G557" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H557" t="s">
         <x:v>14</x:v>
@@ -21619,7 +21619,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="G558" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H558" t="s">
         <x:v>14</x:v>
@@ -21642,7 +21642,7 @@
         <x:v>777</x:v>
       </x:c>
       <x:c r="D559" t="s">
-        <x:v>137</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="E559" t="s">
         <x:v>109</x:v>
@@ -21875,7 +21875,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G566" t="s">
-        <x:v>60</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="H566" t="s">
         <x:v>14</x:v>
@@ -22003,7 +22003,7 @@
         <x:v>789</x:v>
       </x:c>
       <x:c r="G570" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H570" t="s">
         <x:v>14</x:v>
@@ -22067,7 +22067,7 @@
         <x:v>792</x:v>
       </x:c>
       <x:c r="G572" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H572" t="s">
         <x:v>14</x:v>
@@ -22131,7 +22131,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G574" t="s">
-        <x:v>60</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="H574" t="s">
         <x:v>14</x:v>
@@ -22250,7 +22250,7 @@
         <x:v>389</x:v>
       </x:c>
       <x:c r="D578" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="E578" t="s">
         <x:v>76</x:v>
@@ -22259,7 +22259,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G578" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H578" t="s">
         <x:v>14</x:v>
@@ -22323,7 +22323,7 @@
         <x:v>204</x:v>
       </x:c>
       <x:c r="G580" t="s">
-        <x:v>60</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="H580" t="s">
         <x:v>14</x:v>
@@ -22349,7 +22349,7 @@
         <x:v>439</x:v>
       </x:c>
       <x:c r="E581" t="s">
-        <x:v>60</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="F581" t="s">
         <x:v>14</x:v>
@@ -22387,7 +22387,7 @@
         <x:v>801</x:v>
       </x:c>
       <x:c r="G582" t="s">
-        <x:v>60</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="H582" t="s">
         <x:v>14</x:v>
@@ -22445,7 +22445,7 @@
         <x:v>804</x:v>
       </x:c>
       <x:c r="E584" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="F584" t="s">
         <x:v>14</x:v>
@@ -22515,7 +22515,7 @@
         <x:v>806</x:v>
       </x:c>
       <x:c r="G586" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H586" t="s">
         <x:v>14</x:v>
@@ -22605,7 +22605,7 @@
         <x:v>807</x:v>
       </x:c>
       <x:c r="E589" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="F589" t="s">
         <x:v>14</x:v>
@@ -22771,7 +22771,7 @@
         <x:v>815</x:v>
       </x:c>
       <x:c r="G594" t="s">
-        <x:v>60</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="H594" t="s">
         <x:v>14</x:v>
@@ -22931,7 +22931,7 @@
         <x:v>820</x:v>
       </x:c>
       <x:c r="G599" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H599" t="s">
         <x:v>14</x:v>
@@ -23187,7 +23187,7 @@
         <x:v>826</x:v>
       </x:c>
       <x:c r="G607" t="s">
-        <x:v>60</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="H607" t="s">
         <x:v>14</x:v>
@@ -23251,7 +23251,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G609" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H609" t="s">
         <x:v>14</x:v>
@@ -23347,7 +23347,7 @@
         <x:v>831</x:v>
       </x:c>
       <x:c r="G612" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H612" t="s">
         <x:v>14</x:v>
@@ -23379,7 +23379,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G613" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H613" t="s">
         <x:v>14</x:v>
@@ -23565,7 +23565,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E619" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="F619" t="s">
         <x:v>14</x:v>
@@ -23629,7 +23629,7 @@
         <x:v>190</x:v>
       </x:c>
       <x:c r="E621" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="F621" t="s">
         <x:v>14</x:v>
@@ -23667,7 +23667,7 @@
         <x:v>840</x:v>
       </x:c>
       <x:c r="G622" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H622" t="s">
         <x:v>14</x:v>
@@ -23859,7 +23859,7 @@
         <x:v>845</x:v>
       </x:c>
       <x:c r="G628" t="s">
-        <x:v>60</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="H628" t="s">
         <x:v>14</x:v>
@@ -23923,7 +23923,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G630" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H630" t="s">
         <x:v>14</x:v>
@@ -23955,7 +23955,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G631" t="s">
-        <x:v>60</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="H631" t="s">
         <x:v>14</x:v>
@@ -23981,7 +23981,7 @@
         <x:v>581</x:v>
       </x:c>
       <x:c r="E632" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="F632" t="s">
         <x:v>14</x:v>
@@ -24051,7 +24051,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G634" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H634" t="s">
         <x:v>14</x:v>
@@ -24179,7 +24179,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G638" t="s">
-        <x:v>60</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="H638" t="s">
         <x:v>14</x:v>
@@ -24202,7 +24202,7 @@
         <x:v>691</x:v>
       </x:c>
       <x:c r="D639" t="s">
-        <x:v>279</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="E639" t="s">
         <x:v>271</x:v>
@@ -24403,7 +24403,7 @@
         <x:v>854</x:v>
       </x:c>
       <x:c r="G645" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H645" t="s">
         <x:v>14</x:v>
@@ -24461,13 +24461,13 @@
         <x:v>383</x:v>
       </x:c>
       <x:c r="E647" t="s">
-        <x:v>280</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="F647" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="G647" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H647" t="s">
         <x:v>14</x:v>
@@ -24499,7 +24499,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G648" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H648" t="s">
         <x:v>14</x:v>
@@ -24723,7 +24723,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G655" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H655" t="s">
         <x:v>14</x:v>
@@ -24819,7 +24819,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G658" t="s">
-        <x:v>60</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="H658" t="s">
         <x:v>14</x:v>
@@ -24851,7 +24851,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G659" t="s">
-        <x:v>60</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="H659" t="s">
         <x:v>14</x:v>
@@ -24947,7 +24947,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G662" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H662" t="s">
         <x:v>14</x:v>
@@ -25197,7 +25197,7 @@
         <x:v>597</x:v>
       </x:c>
       <x:c r="E670" t="s">
-        <x:v>60</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="F670" t="s">
         <x:v>14</x:v>
@@ -25267,7 +25267,7 @@
         <x:v>882</x:v>
       </x:c>
       <x:c r="G672" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H672" t="s">
         <x:v>14</x:v>
@@ -25293,7 +25293,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E673" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="F673" t="s">
         <x:v>14</x:v>
@@ -25325,7 +25325,7 @@
         <x:v>188</x:v>
       </x:c>
       <x:c r="E674" t="s">
-        <x:v>60</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="F674" t="s">
         <x:v>14</x:v>
@@ -25427,7 +25427,7 @@
         <x:v>885</x:v>
       </x:c>
       <x:c r="G677" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H677" t="s">
         <x:v>14</x:v>
@@ -25587,7 +25587,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G682" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H682" t="s">
         <x:v>14</x:v>
@@ -25619,7 +25619,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G683" t="s">
-        <x:v>60</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="H683" t="s">
         <x:v>14</x:v>
@@ -25651,7 +25651,7 @@
         <x:v>894</x:v>
       </x:c>
       <x:c r="G684" t="s">
-        <x:v>60</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="H684" t="s">
         <x:v>14</x:v>
@@ -25683,7 +25683,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G685" t="s">
-        <x:v>60</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="H685" t="s">
         <x:v>14</x:v>
@@ -25709,7 +25709,7 @@
         <x:v>895</x:v>
       </x:c>
       <x:c r="E686" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="F686" t="s">
         <x:v>14</x:v>
@@ -25875,7 +25875,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G691" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H691" t="s">
         <x:v>14</x:v>
@@ -25907,7 +25907,7 @@
         <x:v>902</x:v>
       </x:c>
       <x:c r="G692" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H692" t="s">
         <x:v>14</x:v>
@@ -25971,7 +25971,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G694" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H694" t="s">
         <x:v>14</x:v>
@@ -26099,7 +26099,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G698" t="s">
-        <x:v>60</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="H698" t="s">
         <x:v>14</x:v>
@@ -26131,7 +26131,7 @@
         <x:v>907</x:v>
       </x:c>
       <x:c r="G699" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H699" t="s">
         <x:v>14</x:v>
@@ -26157,7 +26157,7 @@
         <x:v>752</x:v>
       </x:c>
       <x:c r="E700" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="F700" t="s">
         <x:v>14</x:v>
@@ -26189,7 +26189,7 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="E701" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="F701" t="s">
         <x:v>14</x:v>
@@ -26250,7 +26250,7 @@
         <x:v>694</x:v>
       </x:c>
       <x:c r="D703" t="s">
-        <x:v>137</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="E703" t="s">
         <x:v>119</x:v>
@@ -26291,7 +26291,7 @@
         <x:v>911</x:v>
       </x:c>
       <x:c r="G704" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H704" t="s">
         <x:v>14</x:v>
@@ -26419,7 +26419,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G708" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H708" t="s">
         <x:v>14</x:v>
@@ -26445,7 +26445,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="E709" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="F709" t="s">
         <x:v>14</x:v>
@@ -26506,7 +26506,7 @@
         <x:v>544</x:v>
       </x:c>
       <x:c r="D711" t="s">
-        <x:v>137</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="E711" t="s">
         <x:v>119</x:v>
@@ -26637,7 +26637,7 @@
         <x:v>920</x:v>
       </x:c>
       <x:c r="E715" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="F715" t="s">
         <x:v>14</x:v>
@@ -26675,7 +26675,7 @@
         <x:v>922</x:v>
       </x:c>
       <x:c r="G716" t="s">
-        <x:v>60</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="H716" t="s">
         <x:v>14</x:v>
@@ -26707,7 +26707,7 @@
         <x:v>924</x:v>
       </x:c>
       <x:c r="G717" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H717" t="s">
         <x:v>14</x:v>
@@ -27085,13 +27085,13 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="E729" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="F729" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="G729" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H729" t="s">
         <x:v>14</x:v>
@@ -27283,7 +27283,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G735" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H735" t="s">
         <x:v>14</x:v>
@@ -27379,7 +27379,7 @@
         <x:v>940</x:v>
       </x:c>
       <x:c r="G738" t="s">
-        <x:v>60</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="H738" t="s">
         <x:v>14</x:v>
@@ -27411,7 +27411,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G739" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H739" t="s">
         <x:v>14</x:v>
@@ -27469,7 +27469,7 @@
         <x:v>259</x:v>
       </x:c>
       <x:c r="E741" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="F741" t="s">
         <x:v>14</x:v>
@@ -27507,7 +27507,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G742" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H742" t="s">
         <x:v>14</x:v>
@@ -27539,7 +27539,7 @@
         <x:v>943</x:v>
       </x:c>
       <x:c r="G743" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H743" t="s">
         <x:v>14</x:v>
@@ -27629,7 +27629,7 @@
         <x:v>410</x:v>
       </x:c>
       <x:c r="E746" t="s">
-        <x:v>60</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="F746" t="s">
         <x:v>14</x:v>
@@ -27661,13 +27661,13 @@
         <x:v>215</x:v>
       </x:c>
       <x:c r="E747" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="F747" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="G747" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H747" t="s">
         <x:v>14</x:v>
@@ -27757,7 +27757,7 @@
         <x:v>347</x:v>
       </x:c>
       <x:c r="E750" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="F750" t="s">
         <x:v>14</x:v>
@@ -28019,7 +28019,7 @@
         <x:v>958</x:v>
       </x:c>
       <x:c r="G758" t="s">
-        <x:v>60</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="H758" t="s">
         <x:v>14</x:v>
@@ -28051,7 +28051,7 @@
         <x:v>960</x:v>
       </x:c>
       <x:c r="G759" t="s">
-        <x:v>60</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="H759" t="s">
         <x:v>14</x:v>
@@ -28109,7 +28109,7 @@
         <x:v>422</x:v>
       </x:c>
       <x:c r="E761" t="s">
-        <x:v>152</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="F761" t="s">
         <x:v>14</x:v>
@@ -28147,7 +28147,7 @@
         <x:v>963</x:v>
       </x:c>
       <x:c r="G762" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H762" t="s">
         <x:v>14</x:v>
@@ -28202,7 +28202,7 @@
         <x:v>768</x:v>
       </x:c>
       <x:c r="D764" t="s">
-        <x:v>137</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="E764" t="s">
         <x:v>197</x:v>
@@ -28269,7 +28269,7 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="E766" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="F766" t="s">
         <x:v>14</x:v>
@@ -28307,7 +28307,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G767" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H767" t="s">
         <x:v>14</x:v>
@@ -28339,7 +28339,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G768" t="s">
-        <x:v>60</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="H768" t="s">
         <x:v>14</x:v>
@@ -28403,7 +28403,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G770" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H770" t="s">
         <x:v>14</x:v>
@@ -28435,7 +28435,7 @@
         <x:v>966</x:v>
       </x:c>
       <x:c r="G771" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H771" t="s">
         <x:v>14</x:v>
@@ -28525,7 +28525,7 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="E774" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="F774" t="s">
         <x:v>14</x:v>
@@ -28563,7 +28563,7 @@
         <x:v>970</x:v>
       </x:c>
       <x:c r="G775" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H775" t="s">
         <x:v>14</x:v>
@@ -28595,7 +28595,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G776" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H776" t="s">
         <x:v>14</x:v>
@@ -28813,7 +28813,7 @@
         <x:v>422</x:v>
       </x:c>
       <x:c r="E783" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="F783" t="s">
         <x:v>14</x:v>
@@ -29011,7 +29011,7 @@
         <x:v>987</x:v>
       </x:c>
       <x:c r="G789" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H789" t="s">
         <x:v>14</x:v>
@@ -29043,7 +29043,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G790" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H790" t="s">
         <x:v>14</x:v>
@@ -29075,7 +29075,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G791" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H791" t="s">
         <x:v>14</x:v>
@@ -29162,7 +29162,7 @@
         <x:v>484</x:v>
       </x:c>
       <x:c r="D794" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="E794" t="s">
         <x:v>15</x:v>
@@ -29267,7 +29267,7 @@
         <x:v>993</x:v>
       </x:c>
       <x:c r="G797" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H797" t="s">
         <x:v>14</x:v>
@@ -29357,7 +29357,7 @@
         <x:v>361</x:v>
       </x:c>
       <x:c r="E800" t="s">
-        <x:v>323</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="F800" t="s">
         <x:v>997</x:v>
@@ -29395,7 +29395,7 @@
         <x:v>998</x:v>
       </x:c>
       <x:c r="G801" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H801" t="s">
         <x:v>14</x:v>
@@ -29779,7 +29779,7 @@
         <x:v>1012</x:v>
       </x:c>
       <x:c r="G813" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H813" t="s">
         <x:v>14</x:v>
@@ -29875,7 +29875,7 @@
         <x:v>1014</x:v>
       </x:c>
       <x:c r="G816" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H816" t="s">
         <x:v>14</x:v>
@@ -29907,7 +29907,7 @@
         <x:v>1016</x:v>
       </x:c>
       <x:c r="G817" t="s">
-        <x:v>60</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="H817" t="s">
         <x:v>14</x:v>
@@ -29933,7 +29933,7 @@
         <x:v>807</x:v>
       </x:c>
       <x:c r="E818" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="F818" t="s">
         <x:v>14</x:v>
@@ -30067,7 +30067,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G822" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H822" t="s">
         <x:v>14</x:v>
@@ -30163,7 +30163,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G825" t="s">
-        <x:v>60</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="H825" t="s">
         <x:v>14</x:v>
@@ -30291,7 +30291,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G829" t="s">
-        <x:v>60</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="H829" t="s">
         <x:v>14</x:v>
@@ -30349,7 +30349,7 @@
         <x:v>422</x:v>
       </x:c>
       <x:c r="E831" t="s">
-        <x:v>152</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="F831" t="s">
         <x:v>14</x:v>
@@ -30387,7 +30387,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G832" t="s">
-        <x:v>60</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="H832" t="s">
         <x:v>14</x:v>
@@ -30419,7 +30419,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G833" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H833" t="s">
         <x:v>14</x:v>
@@ -30643,7 +30643,7 @@
         <x:v>1030</x:v>
       </x:c>
       <x:c r="G840" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H840" t="s">
         <x:v>14</x:v>
@@ -30675,7 +30675,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G841" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H841" t="s">
         <x:v>14</x:v>
@@ -30963,7 +30963,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G850" t="s">
-        <x:v>60</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="H850" t="s">
         <x:v>14</x:v>
@@ -31059,7 +31059,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G853" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H853" t="s">
         <x:v>14</x:v>
@@ -31123,7 +31123,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G855" t="s">
-        <x:v>60</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="H855" t="s">
         <x:v>14</x:v>
@@ -31187,7 +31187,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G857" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H857" t="s">
         <x:v>14</x:v>
@@ -31338,7 +31338,7 @@
         <x:v>1029</x:v>
       </x:c>
       <x:c r="D862" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="E862" t="s">
         <x:v>15</x:v>
@@ -31437,7 +31437,7 @@
         <x:v>752</x:v>
       </x:c>
       <x:c r="E865" t="s">
-        <x:v>60</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="F865" t="s">
         <x:v>14</x:v>
@@ -31635,7 +31635,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G871" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H871" t="s">
         <x:v>14</x:v>
@@ -31667,7 +31667,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G872" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H872" t="s">
         <x:v>14</x:v>
@@ -31859,7 +31859,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G878" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H878" t="s">
         <x:v>14</x:v>
@@ -31987,7 +31987,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G882" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H882" t="s">
         <x:v>14</x:v>
@@ -32045,7 +32045,7 @@
         <x:v>528</x:v>
       </x:c>
       <x:c r="E884" t="s">
-        <x:v>60</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="F884" t="s">
         <x:v>14</x:v>
@@ -32115,7 +32115,7 @@
         <x:v>1054</x:v>
       </x:c>
       <x:c r="G886" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H886" t="s">
         <x:v>14</x:v>
@@ -32275,7 +32275,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G891" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H891" t="s">
         <x:v>14</x:v>
@@ -32301,7 +32301,7 @@
         <x:v>350</x:v>
       </x:c>
       <x:c r="E892" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="F892" t="s">
         <x:v>14</x:v>
@@ -32365,7 +32365,7 @@
         <x:v>491</x:v>
       </x:c>
       <x:c r="E894" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="F894" t="s">
         <x:v>14</x:v>
@@ -32461,7 +32461,7 @@
         <x:v>420</x:v>
       </x:c>
       <x:c r="E897" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="F897" t="s">
         <x:v>14</x:v>
@@ -32595,7 +32595,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G901" t="s">
-        <x:v>60</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="H901" t="s">
         <x:v>14</x:v>
@@ -32627,7 +32627,7 @@
         <x:v>1069</x:v>
       </x:c>
       <x:c r="G902" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H902" t="s">
         <x:v>14</x:v>
@@ -32691,7 +32691,7 @@
         <x:v>1070</x:v>
       </x:c>
       <x:c r="G904" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H904" t="s">
         <x:v>14</x:v>
@@ -32755,7 +32755,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G906" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H906" t="s">
         <x:v>14</x:v>
@@ -32851,7 +32851,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G909" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H909" t="s">
         <x:v>14</x:v>
@@ -32979,7 +32979,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G913" t="s">
-        <x:v>60</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="H913" t="s">
         <x:v>14</x:v>
@@ -33107,7 +33107,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G917" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H917" t="s">
         <x:v>14</x:v>
@@ -33261,7 +33261,7 @@
         <x:v>450</x:v>
       </x:c>
       <x:c r="E922" t="s">
-        <x:v>152</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="F922" t="s">
         <x:v>1086</x:v>
@@ -33363,7 +33363,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G925" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H925" t="s">
         <x:v>14</x:v>
@@ -33389,7 +33389,7 @@
         <x:v>494</x:v>
       </x:c>
       <x:c r="E926" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="F926" t="s">
         <x:v>14</x:v>
@@ -33427,7 +33427,7 @@
         <x:v>1090</x:v>
       </x:c>
       <x:c r="G927" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H927" t="s">
         <x:v>14</x:v>
@@ -33459,7 +33459,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G928" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H928" t="s">
         <x:v>14</x:v>
@@ -33491,7 +33491,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G929" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H929" t="s">
         <x:v>14</x:v>
@@ -33523,7 +33523,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G930" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H930" t="s">
         <x:v>14</x:v>
@@ -33587,7 +33587,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G932" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H932" t="s">
         <x:v>14</x:v>
@@ -33651,7 +33651,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G934" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H934" t="s">
         <x:v>14</x:v>
@@ -33866,7 +33866,7 @@
         <x:v>400</x:v>
       </x:c>
       <x:c r="D941" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="E941" t="s">
         <x:v>14</x:v>
@@ -33907,7 +33907,7 @@
         <x:v>1096</x:v>
       </x:c>
       <x:c r="G942" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H942" t="s">
         <x:v>14</x:v>
@@ -33939,7 +33939,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G943" t="s">
-        <x:v>60</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="H943" t="s">
         <x:v>14</x:v>
@@ -33971,7 +33971,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G944" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H944" t="s">
         <x:v>14</x:v>
@@ -34099,7 +34099,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G948" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H948" t="s">
         <x:v>14</x:v>
@@ -34355,7 +34355,7 @@
         <x:v>1105</x:v>
       </x:c>
       <x:c r="G956" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H956" t="s">
         <x:v>14</x:v>
@@ -34381,7 +34381,7 @@
         <x:v>459</x:v>
       </x:c>
       <x:c r="E957" t="s">
-        <x:v>60</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="F957" t="s">
         <x:v>14</x:v>
@@ -34451,7 +34451,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G959" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H959" t="s">
         <x:v>14</x:v>
@@ -34483,7 +34483,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G960" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H960" t="s">
         <x:v>14</x:v>
@@ -34675,7 +34675,7 @@
         <x:v>1111</x:v>
       </x:c>
       <x:c r="G966" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H966" t="s">
         <x:v>14</x:v>
@@ -34707,7 +34707,7 @@
         <x:v>1113</x:v>
       </x:c>
       <x:c r="G967" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H967" t="s">
         <x:v>14</x:v>
@@ -34803,7 +34803,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G970" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H970" t="s">
         <x:v>14</x:v>
@@ -34957,7 +34957,7 @@
         <x:v>385</x:v>
       </x:c>
       <x:c r="E975" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="F975" t="s">
         <x:v>14</x:v>
@@ -35027,7 +35027,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G977" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H977" t="s">
         <x:v>14</x:v>
@@ -35187,7 +35187,7 @@
         <x:v>1124</x:v>
       </x:c>
       <x:c r="G982" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H982" t="s">
         <x:v>14</x:v>
@@ -35315,7 +35315,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G986" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H986" t="s">
         <x:v>14</x:v>
@@ -35338,7 +35338,7 @@
         <x:v>485</x:v>
       </x:c>
       <x:c r="D987" t="s">
-        <x:v>112</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="E987" t="s">
         <x:v>154</x:v>
@@ -35437,7 +35437,7 @@
         <x:v>331</x:v>
       </x:c>
       <x:c r="E990" t="s">
-        <x:v>60</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="F990" t="s">
         <x:v>14</x:v>
@@ -35469,7 +35469,7 @@
         <x:v>188</x:v>
       </x:c>
       <x:c r="E991" t="s">
-        <x:v>60</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="F991" t="s">
         <x:v>14</x:v>
@@ -35539,7 +35539,7 @@
         <x:v>1128</x:v>
       </x:c>
       <x:c r="G993" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H993" t="s">
         <x:v>14</x:v>
@@ -35699,7 +35699,7 @@
         <x:v>1133</x:v>
       </x:c>
       <x:c r="G998" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H998" t="s">
         <x:v>14</x:v>
@@ -35809,7 +35809,7 @@
     </x:row>
   </x:sheetData>
   <x:tableParts count="1">
-    <x:tablePart r:id="Rfe7cd4e2923f478e"/>
+    <x:tablePart r:id="Rb2e78667833c4105"/>
   </x:tableParts>
 </x:worksheet>
 </file>